--- a/Code/Results/Cases/Case_1_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.460350775193149</v>
+        <v>1.124482532946104</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005271624031779609</v>
+        <v>0.006277004901020788</v>
       </c>
       <c r="E2">
-        <v>1.107066877515351</v>
+        <v>0.6738359881879035</v>
       </c>
       <c r="F2">
-        <v>1.812911739392575</v>
+        <v>0.9506464327876358</v>
       </c>
       <c r="G2">
-        <v>1.93177704068367</v>
+        <v>0.8596174217706221</v>
       </c>
       <c r="H2">
-        <v>0.970775251033416</v>
+        <v>0.7517988108240559</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6633038412397667</v>
+        <v>0.2489952740098573</v>
       </c>
       <c r="M2">
-        <v>0.4798669214517588</v>
+        <v>0.2683719018378241</v>
       </c>
       <c r="N2">
-        <v>1.224186760412238</v>
+        <v>1.745962422070548</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.285356968520375</v>
+        <v>1.080744149997571</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004756978852579863</v>
+        <v>0.006315920974921951</v>
       </c>
       <c r="E3">
-        <v>0.9989256278344527</v>
+        <v>0.6412361146004315</v>
       </c>
       <c r="F3">
-        <v>1.572618304380825</v>
+        <v>0.8973036700973154</v>
       </c>
       <c r="G3">
-        <v>1.667843702083672</v>
+        <v>0.7987637060012958</v>
       </c>
       <c r="H3">
-        <v>0.85411918075161</v>
+        <v>0.7295980631369048</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.574104864099553</v>
+        <v>0.2240916001475739</v>
       </c>
       <c r="M3">
-        <v>0.4180034907191086</v>
+        <v>0.2519584832880852</v>
       </c>
       <c r="N3">
-        <v>1.232258254887654</v>
+        <v>1.752865445488439</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.179148955418327</v>
+        <v>1.05437849822485</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00449419954931507</v>
+        <v>0.006349443960331769</v>
       </c>
       <c r="E4">
-        <v>0.9329246976156895</v>
+        <v>0.6210873244879167</v>
       </c>
       <c r="F4">
-        <v>1.429046275576894</v>
+        <v>0.8653051507813103</v>
       </c>
       <c r="G4">
-        <v>1.510096374996891</v>
+        <v>0.7620875950661627</v>
       </c>
       <c r="H4">
-        <v>0.7847845533665918</v>
+        <v>0.7165442534656563</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5198122041512505</v>
+        <v>0.2088521690103704</v>
       </c>
       <c r="M4">
-        <v>0.3803967498073746</v>
+        <v>0.241983852367774</v>
       </c>
       <c r="N4">
-        <v>1.238679119264503</v>
+        <v>1.757842727132115</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.136145277202161</v>
+        <v>1.043757879920179</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004398940037463106</v>
+        <v>0.006365491613628649</v>
       </c>
       <c r="E5">
-        <v>0.906102709563271</v>
+        <v>0.6128432952560274</v>
       </c>
       <c r="F5">
-        <v>1.371414920378498</v>
+        <v>0.8524530781679118</v>
       </c>
       <c r="G5">
-        <v>1.446758744039983</v>
+        <v>0.7473124001449492</v>
       </c>
       <c r="H5">
-        <v>0.7570418149292664</v>
+        <v>0.7113689475358171</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4977869558895094</v>
+        <v>0.202654940261155</v>
       </c>
       <c r="M5">
-        <v>0.3651537415928203</v>
+        <v>0.2379451547681128</v>
       </c>
       <c r="N5">
-        <v>1.241655148728711</v>
+        <v>1.760057309487351</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.129020314564542</v>
+        <v>1.042001811694092</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004383793939938485</v>
+        <v>0.006368299469219352</v>
       </c>
       <c r="E6">
-        <v>0.9016526908669391</v>
+        <v>0.6114723747047535</v>
       </c>
       <c r="F6">
-        <v>1.361894762787998</v>
+        <v>0.8503302711721688</v>
       </c>
       <c r="G6">
-        <v>1.436294890640994</v>
+        <v>0.7448692234748648</v>
       </c>
       <c r="H6">
-        <v>0.7524642689431005</v>
+        <v>0.7105182738782787</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4941351286132516</v>
+        <v>0.2016266784135183</v>
       </c>
       <c r="M6">
-        <v>0.362627248733439</v>
+        <v>0.2372761075080234</v>
       </c>
       <c r="N6">
-        <v>1.242170778130713</v>
+        <v>1.760436306786602</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.178567915234765</v>
+        <v>1.054234763862667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004492868909260039</v>
+        <v>0.006349650766132697</v>
       </c>
       <c r="E7">
-        <v>0.9325627001773498</v>
+        <v>0.6209762771125824</v>
       </c>
       <c r="F7">
-        <v>1.428265648943011</v>
+        <v>0.8651310664297682</v>
       </c>
       <c r="G7">
-        <v>1.509238526040093</v>
+        <v>0.7618876440430711</v>
       </c>
       <c r="H7">
-        <v>0.7844084149269577</v>
+        <v>0.7164738748381012</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5195147867366359</v>
+        <v>0.2087685385167788</v>
       </c>
       <c r="M7">
-        <v>0.3801908614040883</v>
+        <v>0.2419292795210382</v>
       </c>
       <c r="N7">
-        <v>1.238717810877347</v>
+        <v>1.757871838751129</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.399734082692618</v>
+        <v>1.109300090248041</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005082141731030276</v>
+        <v>0.006288404024370919</v>
       </c>
       <c r="E8">
-        <v>1.069680393834375</v>
+        <v>0.6626230328141389</v>
       </c>
       <c r="F8">
-        <v>1.729157489103414</v>
+        <v>0.9320960654694517</v>
       </c>
       <c r="G8">
-        <v>1.839791688139513</v>
+        <v>0.838490693219029</v>
       </c>
       <c r="H8">
-        <v>0.9300355384422403</v>
+        <v>0.7440235119812257</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6324365205924067</v>
+        <v>0.2403977881022854</v>
       </c>
       <c r="M8">
-        <v>0.4584499026248068</v>
+        <v>0.2626911599767467</v>
       </c>
       <c r="N8">
-        <v>1.22666023405317</v>
+        <v>1.74818955595147</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.844996252147439</v>
+        <v>1.221158952951413</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006739545068327857</v>
+        <v>0.006246258354522638</v>
       </c>
       <c r="E9">
-        <v>1.343091041507222</v>
+        <v>0.7432443766454213</v>
       </c>
       <c r="F9">
-        <v>2.356865951034493</v>
+        <v>1.069498704424362</v>
       </c>
       <c r="G9">
-        <v>2.529125514904194</v>
+        <v>0.9942902112834133</v>
       </c>
       <c r="H9">
-        <v>1.237062170451225</v>
+        <v>0.802679884455074</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8586724522133693</v>
+        <v>0.302834661549042</v>
       </c>
       <c r="M9">
-        <v>0.6155605759927667</v>
+        <v>0.3042236540089647</v>
       </c>
       <c r="N9">
-        <v>1.215070202284906</v>
+        <v>1.735043010007786</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.181858664092601</v>
+        <v>1.305699800385696</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008391402409188231</v>
+        <v>0.006265000785120378</v>
       </c>
       <c r="E10">
-        <v>1.548950924558881</v>
+        <v>0.8018471843548411</v>
       </c>
       <c r="F10">
-        <v>2.850718623073703</v>
+        <v>1.174308494429624</v>
       </c>
       <c r="G10">
-        <v>3.071573652894358</v>
+        <v>1.112336544236427</v>
       </c>
       <c r="H10">
-        <v>1.480853118679761</v>
+        <v>0.8486720802145555</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.029423903380149</v>
+        <v>0.3489676429383621</v>
       </c>
       <c r="M10">
-        <v>0.7342270215788602</v>
+        <v>0.335238912805643</v>
       </c>
       <c r="N10">
-        <v>1.214550200090173</v>
+        <v>1.728917556302392</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.337899051888257</v>
+        <v>1.344671434278837</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.009271798274934184</v>
+        <v>0.006284797858114644</v>
       </c>
       <c r="E11">
-        <v>1.644290546038192</v>
+        <v>0.8283728237049672</v>
       </c>
       <c r="F11">
-        <v>3.085016762149593</v>
+        <v>1.222860840741504</v>
       </c>
       <c r="G11">
-        <v>3.329018742846245</v>
+        <v>1.166855732849285</v>
       </c>
       <c r="H11">
-        <v>1.597059450834848</v>
+        <v>0.8702406906226372</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.108506674629922</v>
+        <v>0.3700137260755127</v>
       </c>
       <c r="M11">
-        <v>0.7891747097477406</v>
+        <v>0.3494581886442774</v>
       </c>
       <c r="N11">
-        <v>1.21620614348916</v>
+        <v>1.72689270122909</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.397454207465785</v>
+        <v>1.359502600830353</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009627218866590681</v>
+        <v>0.006293954788379352</v>
       </c>
       <c r="E12">
-        <v>1.680697518803512</v>
+        <v>0.8383983392071457</v>
       </c>
       <c r="F12">
-        <v>3.175373299690619</v>
+        <v>1.241374524414681</v>
       </c>
       <c r="G12">
-        <v>3.428321472652158</v>
+        <v>1.187621526954899</v>
       </c>
       <c r="H12">
-        <v>1.641957766590593</v>
+        <v>0.8785023730177386</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.138695963863029</v>
+        <v>0.3779920470697959</v>
       </c>
       <c r="M12">
-        <v>0.8101456279798285</v>
+        <v>0.3548585067183936</v>
       </c>
       <c r="N12">
-        <v>1.217119549698239</v>
+        <v>1.726235009866002</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.384606117803685</v>
+        <v>1.356305183078575</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009549630750619542</v>
+        <v>0.006291908207820995</v>
       </c>
       <c r="E13">
-        <v>1.67284203209384</v>
+        <v>0.836240018017449</v>
       </c>
       <c r="F13">
-        <v>3.155836468469545</v>
+        <v>1.237381543159472</v>
       </c>
       <c r="G13">
-        <v>3.406849321339195</v>
+        <v>1.183143835688099</v>
       </c>
       <c r="H13">
-        <v>1.632246085061212</v>
+        <v>0.8767188675459749</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.132182683181469</v>
+        <v>0.3762733891261973</v>
       </c>
       <c r="M13">
-        <v>0.8056214716162202</v>
+        <v>0.3536947505692183</v>
       </c>
       <c r="N13">
-        <v>1.216909858306963</v>
+        <v>1.726371811219465</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.34278895904373</v>
+        <v>1.345890133387115</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.009300575243738507</v>
+        <v>0.006285517702870891</v>
       </c>
       <c r="E14">
-        <v>1.647279294502837</v>
+        <v>0.8291980132187717</v>
       </c>
       <c r="F14">
-        <v>3.092416183583396</v>
+        <v>1.224381394753152</v>
       </c>
       <c r="G14">
-        <v>3.337150350159931</v>
+        <v>1.168561715196432</v>
       </c>
       <c r="H14">
-        <v>1.600734538378788</v>
+        <v>0.8709184913212766</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.110985259002661</v>
+        <v>0.3706699344243418</v>
       </c>
       <c r="M14">
-        <v>0.7908965724664441</v>
+        <v>0.3499021600657528</v>
       </c>
       <c r="N14">
-        <v>1.216275466025024</v>
+        <v>1.726836409012904</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.317237449461572</v>
+        <v>1.339520169016907</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.009151004639480931</v>
+        <v>0.006281820722616516</v>
       </c>
       <c r="E15">
-        <v>1.631662933175562</v>
+        <v>0.824882084828559</v>
       </c>
       <c r="F15">
-        <v>3.053790002637186</v>
+        <v>1.216435162031217</v>
       </c>
       <c r="G15">
-        <v>3.294702866927935</v>
+        <v>1.159645527810341</v>
       </c>
       <c r="H15">
-        <v>1.581553369576113</v>
+        <v>0.8673778846171558</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.098034070589534</v>
+        <v>0.3672387802016033</v>
       </c>
       <c r="M15">
-        <v>0.7818992122660902</v>
+        <v>0.3475811427368143</v>
       </c>
       <c r="N15">
-        <v>1.215924612417297</v>
+        <v>1.727135180593663</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.171722648660932</v>
+        <v>1.303163212823108</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008336746705577269</v>
+        <v>0.006263937162252375</v>
       </c>
       <c r="E16">
-        <v>1.542759261705683</v>
+        <v>0.8001109906841037</v>
       </c>
       <c r="F16">
-        <v>2.835620984663905</v>
+        <v>1.171153264954739</v>
       </c>
       <c r="G16">
-        <v>3.05498681760082</v>
+        <v>1.108790307711956</v>
       </c>
       <c r="H16">
-        <v>1.473376255422693</v>
+        <v>0.8472756283894114</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.024287269232673</v>
+        <v>0.3475934386626136</v>
       </c>
       <c r="M16">
-        <v>0.7306575211613904</v>
+        <v>0.3343118626412647</v>
       </c>
       <c r="N16">
-        <v>1.214481250584257</v>
+        <v>1.729065173193732</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.083213945587545</v>
+        <v>1.280990652350624</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007872561515746668</v>
+        <v>0.006255880871684383</v>
       </c>
       <c r="E17">
-        <v>1.488693247650318</v>
+        <v>0.7848806177081684</v>
       </c>
       <c r="F17">
-        <v>2.704415523320449</v>
+        <v>1.143599733322191</v>
       </c>
       <c r="G17">
-        <v>2.910850326989959</v>
+        <v>1.077804067772206</v>
       </c>
       <c r="H17">
-        <v>1.408459018678599</v>
+        <v>0.8351099489231899</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9794331699586678</v>
+        <v>0.3355570160709931</v>
       </c>
       <c r="M17">
-        <v>0.6994862480289257</v>
+        <v>0.3261997826896561</v>
       </c>
       <c r="N17">
-        <v>1.214090264169428</v>
+        <v>1.730443915736004</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.032565411686562</v>
+        <v>1.268285945714126</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007617472651858748</v>
+        <v>0.006252305601957886</v>
       </c>
       <c r="E18">
-        <v>1.457751081267261</v>
+        <v>0.7761079860608504</v>
       </c>
       <c r="F18">
-        <v>2.629840519627606</v>
+        <v>1.127833781900449</v>
       </c>
       <c r="G18">
-        <v>2.828933560319769</v>
+        <v>1.060058554608077</v>
       </c>
       <c r="H18">
-        <v>1.371610798252988</v>
+        <v>0.8281733568235836</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9537640227821385</v>
+        <v>0.3286396271642502</v>
       </c>
       <c r="M18">
-        <v>0.6816466121566478</v>
+        <v>0.3215443129094098</v>
       </c>
       <c r="N18">
-        <v>1.214042595621223</v>
+        <v>1.73130864760239</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.015459418637136</v>
+        <v>1.263992669086235</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007533050321015367</v>
+        <v>0.006251275680664747</v>
       </c>
       <c r="E19">
-        <v>1.447299566528656</v>
+        <v>0.7731355738753933</v>
       </c>
       <c r="F19">
-        <v>2.604736768697933</v>
+        <v>1.122509734489398</v>
       </c>
       <c r="G19">
-        <v>2.801359592669399</v>
+        <v>1.054063362299189</v>
       </c>
       <c r="H19">
-        <v>1.359215175181561</v>
+        <v>0.8258351510678494</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9450940426563932</v>
+        <v>0.3262984872898471</v>
       </c>
       <c r="M19">
-        <v>0.6756210501119568</v>
+        <v>0.3199698365184034</v>
       </c>
       <c r="N19">
-        <v>1.214056478308251</v>
+        <v>1.731613761940324</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.092608573161158</v>
+        <v>1.283345956708501</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007920719951798105</v>
+        <v>0.006256628643928508</v>
       </c>
       <c r="E20">
-        <v>1.494432201319057</v>
+        <v>0.7865032133568235</v>
       </c>
       <c r="F20">
-        <v>2.718288688898809</v>
+        <v>1.14652433898641</v>
       </c>
       <c r="G20">
-        <v>2.926089893366054</v>
+        <v>1.081094621840151</v>
       </c>
       <c r="H20">
-        <v>1.415317921100694</v>
+        <v>0.8363987069951975</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9841942648445752</v>
+        <v>0.3368377297591962</v>
       </c>
       <c r="M20">
-        <v>0.7027950777566758</v>
+        <v>0.3270622532633496</v>
       </c>
       <c r="N20">
-        <v>1.214113444789106</v>
+        <v>1.730289727211769</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.355058479660954</v>
+        <v>1.348947295536959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.009373100127074707</v>
+        <v>0.006287349375391216</v>
       </c>
       <c r="E21">
-        <v>1.654778907369547</v>
+        <v>0.8312669411732116</v>
       </c>
       <c r="F21">
-        <v>3.110997799711498</v>
+        <v>1.228196362059975</v>
       </c>
       <c r="G21">
-        <v>3.357570984630399</v>
+        <v>1.172841543473083</v>
       </c>
       <c r="H21">
-        <v>1.609964857423222</v>
+        <v>0.8726196388731466</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.117204531716112</v>
+        <v>0.3723155707328942</v>
       </c>
       <c r="M21">
-        <v>0.7952169853605326</v>
+        <v>0.3510157079297329</v>
       </c>
       <c r="N21">
-        <v>1.216453912585706</v>
+        <v>1.726696988556654</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.529336445986473</v>
+        <v>1.392249533468032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01045281665028597</v>
+        <v>0.006317122779787354</v>
       </c>
       <c r="E22">
-        <v>1.761382344706632</v>
+        <v>0.8604108878595298</v>
       </c>
       <c r="F22">
-        <v>3.377315307491784</v>
+        <v>1.282320710571526</v>
       </c>
       <c r="G22">
-        <v>3.650301062101875</v>
+        <v>1.233507473863654</v>
       </c>
       <c r="H22">
-        <v>1.742461030096194</v>
+        <v>0.8968412451160361</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.205569928104183</v>
+        <v>0.3955526756291476</v>
       </c>
       <c r="M22">
-        <v>0.8565864176231273</v>
+        <v>0.3667626626139224</v>
       </c>
       <c r="N22">
-        <v>1.219659945472998</v>
+        <v>1.724984512419155</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.436046173154693</v>
+        <v>1.369099284040828</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009863296254195575</v>
+        <v>0.006300331838033912</v>
       </c>
       <c r="E23">
-        <v>1.704297850349036</v>
+        <v>0.8448664475159688</v>
       </c>
       <c r="F23">
-        <v>3.234201693861166</v>
+        <v>1.25336441154289</v>
       </c>
       <c r="G23">
-        <v>3.492980760038705</v>
+        <v>1.201063593780447</v>
       </c>
       <c r="H23">
-        <v>1.671213561131509</v>
+        <v>0.8838630892093136</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.158261556968029</v>
+        <v>0.3831459916571305</v>
       </c>
       <c r="M23">
-        <v>0.8237349906220288</v>
+        <v>0.3583498223981678</v>
       </c>
       <c r="N23">
-        <v>1.217790445290291</v>
+        <v>1.725840481720525</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.088360530710645</v>
+        <v>1.282280990908134</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007898911094706307</v>
+        <v>0.006256287288714191</v>
       </c>
       <c r="E24">
-        <v>1.491837185277419</v>
+        <v>0.7857696892156838</v>
       </c>
       <c r="F24">
-        <v>2.71201398026173</v>
+        <v>1.1452018915152</v>
       </c>
       <c r="G24">
-        <v>2.919197149242535</v>
+        <v>1.079606747979511</v>
       </c>
       <c r="H24">
-        <v>1.412215545898221</v>
+        <v>0.8358158800868978</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9820414090290228</v>
+        <v>0.3362587112806921</v>
       </c>
       <c r="M24">
-        <v>0.7012989049039717</v>
+        <v>0.3266723045427469</v>
       </c>
       <c r="N24">
-        <v>1.214102414220548</v>
+        <v>1.730359211313953</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.723043359574916</v>
+        <v>1.190483739365646</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006225318211917852</v>
+        <v>0.006249090091134946</v>
       </c>
       <c r="E25">
-        <v>1.268431795296806</v>
+        <v>0.7215454334010474</v>
       </c>
       <c r="F25">
-        <v>2.182090116597337</v>
+        <v>1.031660763430352</v>
       </c>
       <c r="G25">
-        <v>2.337192320486935</v>
+        <v>0.951526507928719</v>
       </c>
       <c r="H25">
-        <v>1.151213726899925</v>
+        <v>0.7863083565349314</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.796801120580966</v>
+        <v>0.2858987665469499</v>
       </c>
       <c r="M25">
-        <v>0.5725696286687523</v>
+        <v>0.2929001545253342</v>
       </c>
       <c r="N25">
-        <v>1.216851315640213</v>
+        <v>1.737977092210045</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.124482532946104</v>
+        <v>1.460350775192921</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006277004901020788</v>
+        <v>0.005271624031674804</v>
       </c>
       <c r="E2">
-        <v>0.6738359881879035</v>
+        <v>1.107066877515351</v>
       </c>
       <c r="F2">
-        <v>0.9506464327876358</v>
+        <v>1.812911739392575</v>
       </c>
       <c r="G2">
-        <v>0.8596174217706221</v>
+        <v>1.93177704068367</v>
       </c>
       <c r="H2">
-        <v>0.7517988108240559</v>
+        <v>0.9707752510335297</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2489952740098573</v>
+        <v>0.6633038412396104</v>
       </c>
       <c r="M2">
-        <v>0.2683719018378241</v>
+        <v>0.4798669214517375</v>
       </c>
       <c r="N2">
-        <v>1.745962422070548</v>
+        <v>1.224186760412209</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.080744149997571</v>
+        <v>1.285356968520375</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006315920974921951</v>
+        <v>0.004756978852578087</v>
       </c>
       <c r="E3">
-        <v>0.6412361146004315</v>
+        <v>0.9989256278344811</v>
       </c>
       <c r="F3">
-        <v>0.8973036700973154</v>
+        <v>1.572618304380811</v>
       </c>
       <c r="G3">
-        <v>0.7987637060012958</v>
+        <v>1.667843702083672</v>
       </c>
       <c r="H3">
-        <v>0.7295980631369048</v>
+        <v>0.85411918075161</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2240916001475739</v>
+        <v>0.5741048640993398</v>
       </c>
       <c r="M3">
-        <v>0.2519584832880852</v>
+        <v>0.418003490719137</v>
       </c>
       <c r="N3">
-        <v>1.752865445488439</v>
+        <v>1.232258254887668</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05437849822485</v>
+        <v>1.17914895541827</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006349443960331769</v>
+        <v>0.004494199549318623</v>
       </c>
       <c r="E4">
-        <v>0.6210873244879167</v>
+        <v>0.9329246976156753</v>
       </c>
       <c r="F4">
-        <v>0.8653051507813103</v>
+        <v>1.429046275576908</v>
       </c>
       <c r="G4">
-        <v>0.7620875950661627</v>
+        <v>1.510096374996834</v>
       </c>
       <c r="H4">
-        <v>0.7165442534656563</v>
+        <v>0.7847845533665918</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2088521690103704</v>
+        <v>0.5198122041512505</v>
       </c>
       <c r="M4">
-        <v>0.241983852367774</v>
+        <v>0.3803967498073746</v>
       </c>
       <c r="N4">
-        <v>1.757842727132115</v>
+        <v>1.23867911926456</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.043757879920179</v>
+        <v>1.136145277202019</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006365491613628649</v>
+        <v>0.00439894003746133</v>
       </c>
       <c r="E5">
-        <v>0.6128432952560274</v>
+        <v>0.9061027095632781</v>
       </c>
       <c r="F5">
-        <v>0.8524530781679118</v>
+        <v>1.371414920378484</v>
       </c>
       <c r="G5">
-        <v>0.7473124001449492</v>
+        <v>1.446758744040068</v>
       </c>
       <c r="H5">
-        <v>0.7113689475358171</v>
+        <v>0.7570418149292379</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.202654940261155</v>
+        <v>0.497786955889552</v>
       </c>
       <c r="M5">
-        <v>0.2379451547681128</v>
+        <v>0.3651537415928274</v>
       </c>
       <c r="N5">
-        <v>1.760057309487351</v>
+        <v>1.241655148728753</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.042001811694092</v>
+        <v>1.129020314564542</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006368299469219352</v>
+        <v>0.004383793939748415</v>
       </c>
       <c r="E6">
-        <v>0.6114723747047535</v>
+        <v>0.9016526908669391</v>
       </c>
       <c r="F6">
-        <v>0.8503302711721688</v>
+        <v>1.361894762787983</v>
       </c>
       <c r="G6">
-        <v>0.7448692234748648</v>
+        <v>1.436294890641051</v>
       </c>
       <c r="H6">
-        <v>0.7105182738782787</v>
+        <v>0.7524642689431005</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2016266784135183</v>
+        <v>0.4941351286133653</v>
       </c>
       <c r="M6">
-        <v>0.2372761075080234</v>
+        <v>0.3626272487334461</v>
       </c>
       <c r="N6">
-        <v>1.760436306786602</v>
+        <v>1.242170778130671</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.054234763862667</v>
+        <v>1.17856791523451</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006349650766132697</v>
+        <v>0.004492868909284908</v>
       </c>
       <c r="E7">
-        <v>0.6209762771125824</v>
+        <v>0.9325627001773213</v>
       </c>
       <c r="F7">
-        <v>0.8651310664297682</v>
+        <v>1.428265648943025</v>
       </c>
       <c r="G7">
-        <v>0.7618876440430711</v>
+        <v>1.509238526040036</v>
       </c>
       <c r="H7">
-        <v>0.7164738748381012</v>
+        <v>0.7844084149270998</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2087685385167788</v>
+        <v>0.519514786736508</v>
       </c>
       <c r="M7">
-        <v>0.2419292795210382</v>
+        <v>0.3801908614041025</v>
       </c>
       <c r="N7">
-        <v>1.757871838751129</v>
+        <v>1.238717810877333</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.109300090248041</v>
+        <v>1.399734082692589</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006288404024370919</v>
+        <v>0.005082141731215017</v>
       </c>
       <c r="E8">
-        <v>0.6626230328141389</v>
+        <v>1.069680393834361</v>
       </c>
       <c r="F8">
-        <v>0.9320960654694517</v>
+        <v>1.7291574891034</v>
       </c>
       <c r="G8">
-        <v>0.838490693219029</v>
+        <v>1.839791688139542</v>
       </c>
       <c r="H8">
-        <v>0.7440235119812257</v>
+        <v>0.9300355384420982</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2403977881022854</v>
+        <v>0.6324365205924067</v>
       </c>
       <c r="M8">
-        <v>0.2626911599767467</v>
+        <v>0.4584499026247997</v>
       </c>
       <c r="N8">
-        <v>1.74818955595147</v>
+        <v>1.22666023405317</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.221158952951413</v>
+        <v>1.844996252147553</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006246258354522638</v>
+        <v>0.006739545068437991</v>
       </c>
       <c r="E9">
-        <v>0.7432443766454213</v>
+        <v>1.343091041507193</v>
       </c>
       <c r="F9">
-        <v>1.069498704424362</v>
+        <v>2.356865951034493</v>
       </c>
       <c r="G9">
-        <v>0.9942902112834133</v>
+        <v>2.529125514904251</v>
       </c>
       <c r="H9">
-        <v>0.802679884455074</v>
+        <v>1.237062170451196</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.302834661549042</v>
+        <v>0.8586724522133409</v>
       </c>
       <c r="M9">
-        <v>0.3042236540089647</v>
+        <v>0.6155605759927738</v>
       </c>
       <c r="N9">
-        <v>1.735043010007786</v>
+        <v>1.21507020228492</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.305699800385696</v>
+        <v>2.181858664092488</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.006265000785120378</v>
+        <v>0.008391402409195337</v>
       </c>
       <c r="E10">
-        <v>0.8018471843548411</v>
+        <v>1.548950924558895</v>
       </c>
       <c r="F10">
-        <v>1.174308494429624</v>
+        <v>2.850718623073675</v>
       </c>
       <c r="G10">
-        <v>1.112336544236427</v>
+        <v>3.07157365289433</v>
       </c>
       <c r="H10">
-        <v>0.8486720802145555</v>
+        <v>1.480853118679789</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3489676429383621</v>
+        <v>1.029423903380263</v>
       </c>
       <c r="M10">
-        <v>0.335238912805643</v>
+        <v>0.7342270215788247</v>
       </c>
       <c r="N10">
-        <v>1.728917556302392</v>
+        <v>1.21455020009013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.344671434278837</v>
+        <v>2.337899051888144</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006284797858114644</v>
+        <v>0.009271798275037213</v>
       </c>
       <c r="E11">
-        <v>0.8283728237049672</v>
+        <v>1.644290546038221</v>
       </c>
       <c r="F11">
-        <v>1.222860840741504</v>
+        <v>3.085016762149621</v>
       </c>
       <c r="G11">
-        <v>1.166855732849285</v>
+        <v>3.329018742846273</v>
       </c>
       <c r="H11">
-        <v>0.8702406906226372</v>
+        <v>1.597059450834877</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3700137260755127</v>
+        <v>1.108506674630064</v>
       </c>
       <c r="M11">
-        <v>0.3494581886442774</v>
+        <v>0.7891747097477051</v>
       </c>
       <c r="N11">
-        <v>1.72689270122909</v>
+        <v>1.216206143489174</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.359502600830353</v>
+        <v>2.397454207465898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006293954788379352</v>
+        <v>0.009627218866697262</v>
       </c>
       <c r="E12">
-        <v>0.8383983392071457</v>
+        <v>1.680697518803512</v>
       </c>
       <c r="F12">
-        <v>1.241374524414681</v>
+        <v>3.175373299690676</v>
       </c>
       <c r="G12">
-        <v>1.187621526954899</v>
+        <v>3.428321472652016</v>
       </c>
       <c r="H12">
-        <v>0.8785023730177386</v>
+        <v>1.64195776659065</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3779920470697959</v>
+        <v>1.138695963863142</v>
       </c>
       <c r="M12">
-        <v>0.3548585067183936</v>
+        <v>0.8101456279798143</v>
       </c>
       <c r="N12">
-        <v>1.726235009866002</v>
+        <v>1.217119549698239</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.356305183078575</v>
+        <v>2.384606117803742</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006291908207820995</v>
+        <v>0.009549630750846916</v>
       </c>
       <c r="E13">
-        <v>0.836240018017449</v>
+        <v>1.672842032093882</v>
       </c>
       <c r="F13">
-        <v>1.237381543159472</v>
+        <v>3.155836468469545</v>
       </c>
       <c r="G13">
-        <v>1.183143835688099</v>
+        <v>3.406849321339308</v>
       </c>
       <c r="H13">
-        <v>0.8767188675459749</v>
+        <v>1.632246085061183</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3762733891261973</v>
+        <v>1.132182683181526</v>
       </c>
       <c r="M13">
-        <v>0.3536947505692183</v>
+        <v>0.8056214716162202</v>
       </c>
       <c r="N13">
-        <v>1.726371811219465</v>
+        <v>1.216909858306963</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.345890133387115</v>
+        <v>2.34278895904373</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006285517702870891</v>
+        <v>0.009300575243848641</v>
       </c>
       <c r="E14">
-        <v>0.8291980132187717</v>
+        <v>1.647279294502823</v>
       </c>
       <c r="F14">
-        <v>1.224381394753152</v>
+        <v>3.092416183583396</v>
       </c>
       <c r="G14">
-        <v>1.168561715196432</v>
+        <v>3.337150350159959</v>
       </c>
       <c r="H14">
-        <v>0.8709184913212766</v>
+        <v>1.600734538378788</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3706699344243418</v>
+        <v>1.110985259002689</v>
       </c>
       <c r="M14">
-        <v>0.3499021600657528</v>
+        <v>0.7908965724664512</v>
       </c>
       <c r="N14">
-        <v>1.726836409012904</v>
+        <v>1.216275466025039</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.339520169016907</v>
+        <v>2.317237449461459</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006281820722616516</v>
+        <v>0.009151004639267768</v>
       </c>
       <c r="E15">
-        <v>0.824882084828559</v>
+        <v>1.631662933175576</v>
       </c>
       <c r="F15">
-        <v>1.216435162031217</v>
+        <v>3.053790002637186</v>
       </c>
       <c r="G15">
-        <v>1.159645527810341</v>
+        <v>3.29470286692802</v>
       </c>
       <c r="H15">
-        <v>0.8673778846171558</v>
+        <v>1.581553369576113</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3672387802016033</v>
+        <v>1.098034070589563</v>
       </c>
       <c r="M15">
-        <v>0.3475811427368143</v>
+        <v>0.7818992122660831</v>
       </c>
       <c r="N15">
-        <v>1.727135180593663</v>
+        <v>1.215924612417297</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.303163212823108</v>
+        <v>2.171722648661046</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006263937162252375</v>
+        <v>0.008336746705904119</v>
       </c>
       <c r="E16">
-        <v>0.8001109906841037</v>
+        <v>1.542759261705697</v>
       </c>
       <c r="F16">
-        <v>1.171153264954739</v>
+        <v>2.835620984663962</v>
       </c>
       <c r="G16">
-        <v>1.108790307711956</v>
+        <v>3.054986817600849</v>
       </c>
       <c r="H16">
-        <v>0.8472756283894114</v>
+        <v>1.473376255422721</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3475934386626136</v>
+        <v>1.024287269232474</v>
       </c>
       <c r="M16">
-        <v>0.3343118626412647</v>
+        <v>0.7306575211613904</v>
       </c>
       <c r="N16">
-        <v>1.729065173193732</v>
+        <v>1.214481250584313</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.280990652350624</v>
+        <v>2.083213945587488</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.006255880871684383</v>
+        <v>0.007872561515746668</v>
       </c>
       <c r="E17">
-        <v>0.7848806177081684</v>
+        <v>1.488693247650275</v>
       </c>
       <c r="F17">
-        <v>1.143599733322191</v>
+        <v>2.704415523320421</v>
       </c>
       <c r="G17">
-        <v>1.077804067772206</v>
+        <v>2.910850326989987</v>
       </c>
       <c r="H17">
-        <v>0.8351099489231899</v>
+        <v>1.408459018678599</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3355570160709931</v>
+        <v>0.9794331699586678</v>
       </c>
       <c r="M17">
-        <v>0.3261997826896561</v>
+        <v>0.6994862480289399</v>
       </c>
       <c r="N17">
-        <v>1.730443915736004</v>
+        <v>1.214090264169428</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.268285945714126</v>
+        <v>2.032565411686448</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.006252305601957886</v>
+        <v>0.007617472651634927</v>
       </c>
       <c r="E18">
-        <v>0.7761079860608504</v>
+        <v>1.45775108126729</v>
       </c>
       <c r="F18">
-        <v>1.127833781900449</v>
+        <v>2.629840519627606</v>
       </c>
       <c r="G18">
-        <v>1.060058554608077</v>
+        <v>2.828933560319825</v>
       </c>
       <c r="H18">
-        <v>0.8281733568235836</v>
+        <v>1.371610798252988</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3286396271642502</v>
+        <v>0.9537640227820532</v>
       </c>
       <c r="M18">
-        <v>0.3215443129094098</v>
+        <v>0.681646612156662</v>
       </c>
       <c r="N18">
-        <v>1.73130864760239</v>
+        <v>1.214042595621223</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.263992669086235</v>
+        <v>2.015459418637079</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.006251275680664747</v>
+        <v>0.007533050321132606</v>
       </c>
       <c r="E19">
-        <v>0.7731355738753933</v>
+        <v>1.447299566528656</v>
       </c>
       <c r="F19">
-        <v>1.122509734489398</v>
+        <v>2.604736768697904</v>
       </c>
       <c r="G19">
-        <v>1.054063362299189</v>
+        <v>2.801359592669286</v>
       </c>
       <c r="H19">
-        <v>0.8258351510678494</v>
+        <v>1.359215175181561</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3262984872898471</v>
+        <v>0.9450940426565069</v>
       </c>
       <c r="M19">
-        <v>0.3199698365184034</v>
+        <v>0.6756210501119426</v>
       </c>
       <c r="N19">
-        <v>1.731613761940324</v>
+        <v>1.214056478308279</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.283345956708501</v>
+        <v>2.092608573161158</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006256628643928508</v>
+        <v>0.007920719951794553</v>
       </c>
       <c r="E20">
-        <v>0.7865032133568235</v>
+        <v>1.494432201319043</v>
       </c>
       <c r="F20">
-        <v>1.14652433898641</v>
+        <v>2.718288688898809</v>
       </c>
       <c r="G20">
-        <v>1.081094621840151</v>
+        <v>2.926089893366083</v>
       </c>
       <c r="H20">
-        <v>0.8363987069951975</v>
+        <v>1.415317921100723</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3368377297591962</v>
+        <v>0.9841942648446036</v>
       </c>
       <c r="M20">
-        <v>0.3270622532633496</v>
+        <v>0.7027950777566758</v>
       </c>
       <c r="N20">
-        <v>1.730289727211769</v>
+        <v>1.214113444789078</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.348947295536959</v>
+        <v>2.35505847966084</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006287349375391216</v>
+        <v>0.009373100127060496</v>
       </c>
       <c r="E21">
-        <v>0.8312669411732116</v>
+        <v>1.65477890736959</v>
       </c>
       <c r="F21">
-        <v>1.228196362059975</v>
+        <v>3.110997799711555</v>
       </c>
       <c r="G21">
-        <v>1.172841543473083</v>
+        <v>3.357570984630456</v>
       </c>
       <c r="H21">
-        <v>0.8726196388731466</v>
+        <v>1.609964857423222</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3723155707328942</v>
+        <v>1.117204531716226</v>
       </c>
       <c r="M21">
-        <v>0.3510157079297329</v>
+        <v>0.7952169853605469</v>
       </c>
       <c r="N21">
-        <v>1.726696988556654</v>
+        <v>1.216453912585692</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392249533468032</v>
+        <v>2.52933644598653</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.006317122779787354</v>
+        <v>0.01045281665029307</v>
       </c>
       <c r="E22">
-        <v>0.8604108878595298</v>
+        <v>1.761382344706661</v>
       </c>
       <c r="F22">
-        <v>1.282320710571526</v>
+        <v>3.377315307491813</v>
       </c>
       <c r="G22">
-        <v>1.233507473863654</v>
+        <v>3.650301062101732</v>
       </c>
       <c r="H22">
-        <v>0.8968412451160361</v>
+        <v>1.742461030096081</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3955526756291476</v>
+        <v>1.205569928104069</v>
       </c>
       <c r="M22">
-        <v>0.3667626626139224</v>
+        <v>0.8565864176231202</v>
       </c>
       <c r="N22">
-        <v>1.724984512419155</v>
+        <v>1.219659945473012</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.369099284040828</v>
+        <v>2.436046173154693</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006300331838033912</v>
+        <v>0.009863296254188469</v>
       </c>
       <c r="E23">
-        <v>0.8448664475159688</v>
+        <v>1.704297850349022</v>
       </c>
       <c r="F23">
-        <v>1.25336441154289</v>
+        <v>3.234201693861195</v>
       </c>
       <c r="G23">
-        <v>1.201063593780447</v>
+        <v>3.492980760038648</v>
       </c>
       <c r="H23">
-        <v>0.8838630892093136</v>
+        <v>1.671213561131538</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3831459916571305</v>
+        <v>1.158261556968</v>
       </c>
       <c r="M23">
-        <v>0.3583498223981678</v>
+        <v>0.8237349906220217</v>
       </c>
       <c r="N23">
-        <v>1.725840481720525</v>
+        <v>1.217790445290262</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.282280990908134</v>
+        <v>2.088360530710702</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006256287288714191</v>
+        <v>0.007898911094702754</v>
       </c>
       <c r="E24">
-        <v>0.7857696892156838</v>
+        <v>1.491837185277433</v>
       </c>
       <c r="F24">
-        <v>1.1452018915152</v>
+        <v>2.712013980261787</v>
       </c>
       <c r="G24">
-        <v>1.079606747979511</v>
+        <v>2.919197149242478</v>
       </c>
       <c r="H24">
-        <v>0.8358158800868978</v>
+        <v>1.412215545898192</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3362587112806921</v>
+        <v>0.9820414090290228</v>
       </c>
       <c r="M24">
-        <v>0.3266723045427469</v>
+        <v>0.7012989049039575</v>
       </c>
       <c r="N24">
-        <v>1.730359211313953</v>
+        <v>1.214102414220534</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.190483739365646</v>
+        <v>1.723043359574945</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006249090091134946</v>
+        <v>0.006225318212027986</v>
       </c>
       <c r="E25">
-        <v>0.7215454334010474</v>
+        <v>1.268431795296777</v>
       </c>
       <c r="F25">
-        <v>1.031660763430352</v>
+        <v>2.182090116597337</v>
       </c>
       <c r="G25">
-        <v>0.951526507928719</v>
+        <v>2.337192320486963</v>
       </c>
       <c r="H25">
-        <v>0.7863083565349314</v>
+        <v>1.151213726900068</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2858987665469499</v>
+        <v>0.7968011205809375</v>
       </c>
       <c r="M25">
-        <v>0.2929001545253342</v>
+        <v>0.5725696286687452</v>
       </c>
       <c r="N25">
-        <v>1.737977092210045</v>
+        <v>1.216851315640213</v>
       </c>
       <c r="O25">
         <v>0</v>
